--- a/biology/Médecine/Vittorio_Colizzi/Vittorio_Colizzi.xlsx
+++ b/biology/Médecine/Vittorio_Colizzi/Vittorio_Colizzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Vittorio Colizzi (7 février 1949 à Rome) est un des chercheurs les plus éminents sur le VIH/SIDA en Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dirige le laboratoire de Pathologie immunochimique et moléculaire au département de Biologie de l'université Tor Vergata à Rome. Avec son collègue français Luc Montagnier, il participe à plusieurs conférences, notamment en Afrique, pour lutter contre la propagation du VIH. En outre, il est l'un des instigateurs d'un Centre de renom situé à Yaoundè au Cameroun : « le centre International de Référence sur la recherche sur la prévention et la prise en charge du VIH SIDA(CIRCB) ». Il fait d'ailleurs partie du Conseil scientifique et du conseil d'Administration de cette structure.
 </t>
